--- a/GIT_TestCases.xlsx
+++ b/GIT_TestCases.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>GIT Test Cases</t>
   </si>
@@ -61,6 +59,24 @@
   </si>
   <si>
     <t>Case 5 - Steps</t>
+  </si>
+  <si>
+    <t>Commit B1</t>
+  </si>
+  <si>
+    <t>Commit B2</t>
+  </si>
+  <si>
+    <t>Develop &gt; B1</t>
+  </si>
+  <si>
+    <t>Develop &gt; B2</t>
+  </si>
+  <si>
+    <t>Merge B1 into Develop</t>
+  </si>
+  <si>
+    <t>Merge B2 into Develop</t>
   </si>
 </sst>
 </file>
@@ -373,6 +389,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142318</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="9448800"/>
+          <a:ext cx="4457143" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285404</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="10782300"/>
+          <a:ext cx="2771429" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -663,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,32 +956,68 @@
         <v>6</v>
       </c>
     </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>